--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions2006.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions2006.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.005*"cid" + 0.005*"cidcidcidcid" + 0.003*"cidcidcid" + 0.003*"cidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcid" + 0.003*"cidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcid" + 0.002*"cidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcid" + 0.002*"cidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcid" + 0.002*"cidcidcidcidcidcidcidcidcidcidcidcid" + 0.002*"cidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcid" + 0.002*"cidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcid"</t>
-  </si>
-  <si>
-    <t>0.026*"cid" + 0.022*"cidcidcidcid" + 0.020*"cidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcid" + 0.015*"cidcidcid" + 0.013*"cidcidcidcidcidcidcidcidcidcidcidcidcidcid" + 0.012*"cidcidcidcidcidcidcidcidcidcidcidcid" + 0.010*"cidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcid" + 0.009*"cidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcid" + 0.009*"cidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcid" + 0.008*"cidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcid"</t>
-  </si>
-  <si>
-    <t>0.062*"cidcidcidcid" + 0.052*"cid" + 0.042*"cidcidcid" + 0.037*"cidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcid" + 0.025*"cidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcid" + 0.025*"cidcidcidcidcidcidcidcidcidcidcidcid" + 0.023*"cidcidcidcidcidcidcidcidcidcidcidcidcidcid" + 0.021*"cidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcid" + 0.021*"cidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcid" + 0.020*"cidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcid"</t>
-  </si>
-  <si>
-    <t>0.004*"cidcidcidcid" + 0.004*"cid" + 0.004*"cidcidcid" + 0.003*"cidcidcidcidcidcidcidcidcidcidcidcidcidcid" + 0.002*"cidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcid" + 0.002*"cidcidcidcidcidcidcidcidcidcidcidcid" + 0.002*"cidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcid" + 0.002*"cidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcid" + 0.002*"cidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcid" + 0.002*"cidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcid"</t>
-  </si>
-  <si>
-    <t>0.066*"cidcidcidcid" + 0.047*"cid" + 0.038*"cidcidcid" + 0.032*"cidcidcidcidcidcidcidcidcidcidcidcidcidcid" + 0.026*"cidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcid" + 0.025*"cidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcid" + 0.025*"cidcidcidcidcidcidcidcidcidcidcidcid" + 0.024*"cidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcid" + 0.024*"cidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcid" + 0.022*"cidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcid"</t>
+    <t>0.108*"cidcidcidcid" + 0.074*"cidcidcid" + 0.050*"cidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcid" + 0.049*"cidcidcidcidcidcidcidcidcidcidcidcid" + 0.040*"cidcidcidcidcidcidcidcidcidcidcidcidcidcid" + 0.035*"cidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcid" + 0.027*"cidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcid" + 0.022*"cidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcid" + 0.022*"cidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcid" + 0.021*"cidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcid"</t>
+  </si>
+  <si>
+    <t>0.087*"cidcidcidcid" + 0.044*"cidcidcidcidcidcidcidcidcidcidcidcidcidcid" + 0.040*"cidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcid" + 0.039*"cidcidcid" + 0.032*"cidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcid" + 0.031*"cidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcid" + 0.030*"cidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcid" + 0.028*"cidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcid" + 0.028*"cidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcid" + 0.027*"cidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcid"</t>
+  </si>
+  <si>
+    <t>0.569*"cid" + 0.010*"country" + 0.009*"report" + 0.008*"restriction" + 0.008*"article" + 0.007*"currency" + 0.006*"exchange" + 0.006*"imf" + 0.006*"arrangement" + 0.006*"payment"</t>
+  </si>
+  <si>
+    <t>0.049*"cidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcid" + 0.046*"cidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcid" + 0.044*"cidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcid" + 0.042*"cidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcid" + 0.042*"cidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcid" + 0.036*"cidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcid" + 0.033*"cidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcid" + 0.027*"cidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcid" + 0.026*"cidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcid" + 0.026*"cidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcidcid"</t>
+  </si>
+  <si>
+    <t>0.056*"exchange" + 0.035*"rate" + 0.021*"foreign" + 0.016*"transaction" + 0.014*"control" + 0.013*"monetary" + 0.012*"market" + 0.011*"bank" + 0.009*"restriction" + 0.009*"current"</t>
   </si>
 </sst>
 </file>
